--- a/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
+++ b/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
@@ -83,7 +83,7 @@
     <t>010102</t>
   </si>
   <si>
-    <t>TEST411111</t>
+    <t>AGST240923</t>
   </si>
   <si>
     <t>ICL</t>
@@ -96,19 +96,19 @@
     <t>010104</t>
   </si>
   <si>
-    <t>TEST411112</t>
+    <t>AGST240924</t>
   </si>
   <si>
     <t>010106</t>
   </si>
   <si>
-    <t>TEST411113</t>
+    <t>AGST240925</t>
   </si>
   <si>
     <t>010202</t>
   </si>
   <si>
-    <t>TEST411114</t>
+    <t>AGST240926</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>

--- a/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
+++ b/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>POD</t>
   </si>
@@ -83,7 +83,7 @@
     <t>010102</t>
   </si>
   <si>
-    <t>AGST240923</t>
+    <t>AGST25081106</t>
   </si>
   <si>
     <t>ICL</t>
@@ -96,19 +96,13 @@
     <t>010104</t>
   </si>
   <si>
-    <t>AGST240924</t>
+    <t>AGST25081107</t>
   </si>
   <si>
     <t>010106</t>
   </si>
   <si>
-    <t>AGST240925</t>
-  </si>
-  <si>
-    <t>010202</t>
-  </si>
-  <si>
-    <t>AGST240926</t>
+    <t>AGST25081108</t>
   </si>
 </sst>
 </file>
@@ -116,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,21 +140,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,82 +181,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,11 +234,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,29 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -307,6 +280,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -323,126 +310,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,62 +494,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -560,6 +547,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -575,6 +588,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -582,37 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,32 +660,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,152 +688,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,17 +843,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -849,8 +862,30 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,7 +1220,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
@@ -1250,7 +1285,7 @@
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1268,7 +1303,7 @@
       <c r="H2" s="7">
         <v>25000</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -1284,7 +1319,7 @@
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1318,22 +1353,22 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <v>27200</v>
       </c>
       <c r="I4" s="5"/>
@@ -1346,30 +1381,14 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" ht="15.5" spans="1:16">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27200</v>
-      </c>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>

--- a/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
+++ b/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>POD</t>
   </si>
@@ -83,7 +83,7 @@
     <t>010102</t>
   </si>
   <si>
-    <t>TEST411111</t>
+    <t>AGST25081106</t>
   </si>
   <si>
     <t>ICL</t>
@@ -96,19 +96,13 @@
     <t>010104</t>
   </si>
   <si>
-    <t>TEST411112</t>
+    <t>AGST25081107</t>
   </si>
   <si>
     <t>010106</t>
   </si>
   <si>
-    <t>TEST411113</t>
-  </si>
-  <si>
-    <t>010202</t>
-  </si>
-  <si>
-    <t>TEST411114</t>
+    <t>AGST25081108</t>
   </si>
 </sst>
 </file>
@@ -116,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,21 +140,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,82 +181,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,11 +234,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,29 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -307,6 +280,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -323,126 +310,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,62 +494,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -560,6 +547,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -575,6 +588,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -582,37 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,32 +660,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,152 +688,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,17 +843,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -849,8 +862,30 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,7 +1220,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
@@ -1250,7 +1285,7 @@
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1268,7 +1303,7 @@
       <c r="H2" s="7">
         <v>25000</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -1284,7 +1319,7 @@
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1318,22 +1353,22 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <v>27200</v>
       </c>
       <c r="I4" s="5"/>
@@ -1346,30 +1381,14 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" ht="15.5" spans="1:16">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27200</v>
-      </c>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>

--- a/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
+++ b/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="19200" windowHeight="6830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>POD</t>
   </si>
@@ -83,7 +83,7 @@
     <t>010102</t>
   </si>
   <si>
-    <t>AGST25081106</t>
+    <t>TESTSEPT2812</t>
   </si>
   <si>
     <t>ICL</t>
@@ -96,24 +96,60 @@
     <t>010104</t>
   </si>
   <si>
-    <t>AGST25081107</t>
+    <t>TESTSEPT2813</t>
   </si>
   <si>
     <t>010106</t>
   </si>
   <si>
-    <t>AGST25081108</t>
+    <t>TESTSEPT2814</t>
+  </si>
+  <si>
+    <t>010107</t>
+  </si>
+  <si>
+    <t>TESTSEPT2815</t>
+  </si>
+  <si>
+    <t>010108</t>
+  </si>
+  <si>
+    <t>TESTSEPT2816</t>
+  </si>
+  <si>
+    <t>010109</t>
+  </si>
+  <si>
+    <t>TESTSEPT2817</t>
+  </si>
+  <si>
+    <t>010110</t>
+  </si>
+  <si>
+    <t>TESTSEPT2818</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>TESTSEPT2819</t>
+  </si>
+  <si>
+    <t>010112</t>
+  </si>
+  <si>
+    <t>TESTSEPT2820</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -151,78 +187,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,9 +242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +259,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -251,45 +282,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,19 +346,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,163 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +584,19 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -555,19 +604,6 @@
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -582,17 +618,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,23 +640,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,11 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,8 +703,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,13 +724,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,137 +739,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,79 +898,63 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1217,13 +1237,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="16.3636363636364" customWidth="1"/>
   </cols>
@@ -1285,14 +1305,14 @@
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>20</v>
@@ -1303,7 +1323,7 @@
       <c r="H2" s="7">
         <v>25000</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -1319,14 +1339,14 @@
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>20</v>
@@ -1353,22 +1373,22 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10">
-        <v>1</v>
+      <c r="E4" s="7">
+        <v>2000</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>27200</v>
       </c>
       <c r="I4" s="5"/>
@@ -1381,14 +1401,30 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" ht="15.5" spans="1:16">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="15"/>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11">
+        <v>27200</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1397,6 +1433,136 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
+    </row>
+    <row r="6" ht="15.5" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="7" ht="15.5" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="11">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="8" ht="15.5" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="11">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="9" ht="15.5" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="11">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="10" ht="15.5" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="11">
+        <v>27200</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
@@ -1408,7 +1574,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
+  <conditionalFormatting sqref="D2:D10">
     <cfRule type="duplicateValues" dxfId="0" priority="24"/>
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>

--- a/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
+++ b/public/BapleiXCL/TEST EDI 22 Agustus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>POD</t>
   </si>
@@ -83,7 +83,7 @@
     <t>010102</t>
   </si>
   <si>
-    <t>TESTSEPT2812</t>
+    <t>TEST07102353</t>
   </si>
   <si>
     <t>ICL</t>
@@ -96,49 +96,13 @@
     <t>010104</t>
   </si>
   <si>
-    <t>TESTSEPT2813</t>
+    <t>TEST07102354</t>
   </si>
   <si>
     <t>010106</t>
   </si>
   <si>
-    <t>TESTSEPT2814</t>
-  </si>
-  <si>
-    <t>010107</t>
-  </si>
-  <si>
-    <t>TESTSEPT2815</t>
-  </si>
-  <si>
-    <t>010108</t>
-  </si>
-  <si>
-    <t>TESTSEPT2816</t>
-  </si>
-  <si>
-    <t>010109</t>
-  </si>
-  <si>
-    <t>TESTSEPT2817</t>
-  </si>
-  <si>
-    <t>010110</t>
-  </si>
-  <si>
-    <t>TESTSEPT2818</t>
-  </si>
-  <si>
-    <t>010111</t>
-  </si>
-  <si>
-    <t>TESTSEPT2819</t>
-  </si>
-  <si>
-    <t>010112</t>
-  </si>
-  <si>
-    <t>TESTSEPT2820</t>
+    <t>TEST07102355</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1204,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1401,30 +1365,14 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" ht="15.5" spans="1:16">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="11">
-        <v>27200</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1435,134 +1383,54 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" ht="15.5" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="11">
-        <v>27200</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" ht="15.5" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="11">
-        <v>27200</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="15.5" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="11">
-        <v>27200</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" ht="15.5" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="11">
-        <v>27200</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" ht="15.5" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="11">
-        <v>27200</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
